--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il2-Il2ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il2-Il2ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Il2</t>
+  </si>
+  <si>
+    <t>Il2ra</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il2</t>
-  </si>
-  <si>
-    <t>Il2ra</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,40 +546,40 @@
         <v>0.238898</v>
       </c>
       <c r="I2">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2667246666666667</v>
+        <v>0.08146333333333333</v>
       </c>
       <c r="N2">
-        <v>0.8001740000000001</v>
+        <v>0.24439</v>
       </c>
       <c r="O2">
-        <v>0.0541745827576984</v>
+        <v>0.04956746861823912</v>
       </c>
       <c r="P2">
-        <v>0.07300781059322826</v>
+        <v>0.05040207820148787</v>
       </c>
       <c r="Q2">
-        <v>0.02123999647244445</v>
+        <v>0.006487142468888889</v>
       </c>
       <c r="R2">
-        <v>0.191159968252</v>
+        <v>0.05838428222</v>
       </c>
       <c r="S2">
-        <v>0.02644551998636803</v>
+        <v>0.04956746861823912</v>
       </c>
       <c r="T2">
-        <v>0.03563902878291805</v>
+        <v>0.05040207820148787</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -608,10 +608,10 @@
         <v>0.238898</v>
       </c>
       <c r="I3">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,10 +626,10 @@
         <v>0.032601</v>
       </c>
       <c r="O3">
-        <v>0.002207201899191583</v>
+        <v>0.006612173347613296</v>
       </c>
       <c r="P3">
-        <v>0.002974512584950067</v>
+        <v>0.006723508128183256</v>
       </c>
       <c r="Q3">
         <v>0.0008653681886666667</v>
@@ -638,10 +638,10 @@
         <v>0.007788313698</v>
       </c>
       <c r="S3">
-        <v>0.001077453650175567</v>
+        <v>0.006612173347613296</v>
       </c>
       <c r="T3">
-        <v>0.001452019157523128</v>
+        <v>0.006723508128183256</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -670,40 +670,40 @@
         <v>0.238898</v>
       </c>
       <c r="I4">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.644775</v>
+        <v>1.192621666666667</v>
       </c>
       <c r="N4">
-        <v>1.934325</v>
+        <v>3.577865</v>
       </c>
       <c r="O4">
-        <v>0.1309605783151976</v>
+        <v>0.7256668075935845</v>
       </c>
       <c r="P4">
-        <v>0.1764876554671187</v>
+        <v>0.7378854761830124</v>
       </c>
       <c r="Q4">
-        <v>0.05134515265</v>
+        <v>0.09497164364111112</v>
       </c>
       <c r="R4">
-        <v>0.46210637385</v>
+        <v>0.85474479277</v>
       </c>
       <c r="S4">
-        <v>0.06392888352737196</v>
+        <v>0.7256668075935845</v>
       </c>
       <c r="T4">
-        <v>0.08615309214060686</v>
+        <v>0.7378854761830124</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,40 +732,40 @@
         <v>0.238898</v>
       </c>
       <c r="I5">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>3.8101695</v>
+        <v>0.08164349999999999</v>
       </c>
       <c r="N5">
-        <v>7.620339</v>
+        <v>0.163287</v>
       </c>
       <c r="O5">
-        <v>0.7738854657809741</v>
+        <v>0.04967709346699789</v>
       </c>
       <c r="P5">
-        <v>0.6952791097538666</v>
+        <v>0.03367569926464401</v>
       </c>
       <c r="Q5">
-        <v>0.303413957737</v>
+        <v>0.006501489621</v>
       </c>
       <c r="R5">
-        <v>1.820483746422</v>
+        <v>0.039008937726</v>
       </c>
       <c r="S5">
-        <v>0.3777750101741617</v>
+        <v>0.04967709346699789</v>
       </c>
       <c r="T5">
-        <v>0.3394030310364908</v>
+        <v>0.03367569926464401</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,350 +794,40 @@
         <v>0.238898</v>
       </c>
       <c r="I6">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.190892</v>
+        <v>0.2768883333333333</v>
       </c>
       <c r="N6">
-        <v>0.5726760000000001</v>
+        <v>0.830665</v>
       </c>
       <c r="O6">
-        <v>0.03877217124693842</v>
+        <v>0.1684764569735652</v>
       </c>
       <c r="P6">
-        <v>0.05225091160083631</v>
+        <v>0.1713132382226724</v>
       </c>
       <c r="Q6">
-        <v>0.01520123900533334</v>
+        <v>0.02204935635222223</v>
       </c>
       <c r="R6">
-        <v>0.136811151048</v>
+        <v>0.19844420717</v>
       </c>
       <c r="S6">
-        <v>0.01892677668071357</v>
+        <v>0.1684764569735652</v>
       </c>
       <c r="T6">
-        <v>0.02550647290125195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.08349766666666665</v>
-      </c>
-      <c r="H7">
-        <v>0.250493</v>
-      </c>
-      <c r="I7">
-        <v>0.5118463559812092</v>
-      </c>
-      <c r="J7">
-        <v>0.5118463559812093</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.2667246666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.8001740000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.0541745827576984</v>
-      </c>
-      <c r="P7">
-        <v>0.07300781059322826</v>
-      </c>
-      <c r="Q7">
-        <v>0.02227088730911111</v>
-      </c>
-      <c r="R7">
-        <v>0.200437985782</v>
-      </c>
-      <c r="S7">
-        <v>0.02772906277133037</v>
-      </c>
-      <c r="T7">
-        <v>0.03736878181031022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.08349766666666665</v>
-      </c>
-      <c r="H8">
-        <v>0.250493</v>
-      </c>
-      <c r="I8">
-        <v>0.5118463559812092</v>
-      </c>
-      <c r="J8">
-        <v>0.5118463559812093</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.010867</v>
-      </c>
-      <c r="N8">
-        <v>0.032601</v>
-      </c>
-      <c r="O8">
-        <v>0.002207201899191583</v>
-      </c>
-      <c r="P8">
-        <v>0.002974512584950067</v>
-      </c>
-      <c r="Q8">
-        <v>0.0009073691436666664</v>
-      </c>
-      <c r="R8">
-        <v>0.008166322292999998</v>
-      </c>
-      <c r="S8">
-        <v>0.001129748249016016</v>
-      </c>
-      <c r="T8">
-        <v>0.001522493427426939</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.08349766666666665</v>
-      </c>
-      <c r="H9">
-        <v>0.250493</v>
-      </c>
-      <c r="I9">
-        <v>0.5118463559812092</v>
-      </c>
-      <c r="J9">
-        <v>0.5118463559812093</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.644775</v>
-      </c>
-      <c r="N9">
-        <v>1.934325</v>
-      </c>
-      <c r="O9">
-        <v>0.1309605783151976</v>
-      </c>
-      <c r="P9">
-        <v>0.1764876554671187</v>
-      </c>
-      <c r="Q9">
-        <v>0.05383720802499999</v>
-      </c>
-      <c r="R9">
-        <v>0.484534872225</v>
-      </c>
-      <c r="S9">
-        <v>0.06703169478782568</v>
-      </c>
-      <c r="T9">
-        <v>0.09033456332651188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.08349766666666665</v>
-      </c>
-      <c r="H10">
-        <v>0.250493</v>
-      </c>
-      <c r="I10">
-        <v>0.5118463559812092</v>
-      </c>
-      <c r="J10">
-        <v>0.5118463559812093</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.8101695</v>
-      </c>
-      <c r="N10">
-        <v>7.620339</v>
-      </c>
-      <c r="O10">
-        <v>0.7738854657809741</v>
-      </c>
-      <c r="P10">
-        <v>0.6952791097538666</v>
-      </c>
-      <c r="Q10">
-        <v>0.3181402628545</v>
-      </c>
-      <c r="R10">
-        <v>1.908841577127</v>
-      </c>
-      <c r="S10">
-        <v>0.3961104556068124</v>
-      </c>
-      <c r="T10">
-        <v>0.3558760787173759</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.08349766666666665</v>
-      </c>
-      <c r="H11">
-        <v>0.250493</v>
-      </c>
-      <c r="I11">
-        <v>0.5118463559812092</v>
-      </c>
-      <c r="J11">
-        <v>0.5118463559812093</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.190892</v>
-      </c>
-      <c r="N11">
-        <v>0.5726760000000001</v>
-      </c>
-      <c r="O11">
-        <v>0.03877217124693842</v>
-      </c>
-      <c r="P11">
-        <v>0.05225091160083631</v>
-      </c>
-      <c r="Q11">
-        <v>0.01593903658533333</v>
-      </c>
-      <c r="R11">
-        <v>0.143451329268</v>
-      </c>
-      <c r="S11">
-        <v>0.01984539456622484</v>
-      </c>
-      <c r="T11">
-        <v>0.02674443869958436</v>
+        <v>0.1713132382226724</v>
       </c>
     </row>
   </sheetData>
